--- a/Crossword_examen_1.xlsx
+++ b/Crossword_examen_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alumno/Desktop/ExamenParcial1-A01274402/parcial1-A01274402/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1A3536-D87B-CA46-93F2-C65B5F7838C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B892C598-FAD5-734A-9F4D-FF995E29CFD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Crossword_examen_1.xlsx
+++ b/Crossword_examen_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alumno/Desktop/ExamenParcial1-A01274402/parcial1-A01274402/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B892C598-FAD5-734A-9F4D-FF995E29CFD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD327CD7-1F05-F049-81EF-77D8C4839F56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -634,7 +634,7 @@
   <dimension ref="B2:AL55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
